--- a/data/financial_time_series_data/financial_time_series_calibrations/silver-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/silver-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.22767114551774634, 0.07116514037687688, 0.0825315139387393, 0.10808612079844691, 0.07745020501603359, 0.1554505607276852, 0.314464014303673, 0.14921417379141194, 0.007060237586062982, 0.07304549320488161, 0.0749473908340232, 0.02494827284931313, 0.12578710448173283, 0.29772160076827403, 0.12812096801269898, 0.029543605309833573, 0.0929268532686633, 0.09059159931975867, 0.02337120438345438]</t>
+    <t>[1.0, 0.14524713620753002, 0.026048222905760237, 0.08826587790657203, 0.08683521874205198, 0.020265338434351257, 0.08492595576956288, 0.2723303106873136, 0.10063556677572534, -0.013719874393382533, 0.09823279943222611, 0.0749176217330113, -0.023640790106412977, 0.09231822970644903, 0.2664087422091209, 0.06569849735376455, -0.012008672776967204, 0.11163698280494512, 0.09667318905904564, -0.024479232437878935]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2273283223187647, 0.07107295856840419, 0.08442502839831785, 0.11009167094984008, 0.07805531987302901, 0.15497365362736007, 0.31487933189019685, 0.1491037801061093, 0.007185133782006986, 0.0726987611559254, 0.07459733961090662, 0.025153494819605212, 0.12595857922437606, 0.2983520547276034, 0.12739576053155993, 0.02994170834847435, 0.09401341282425603, 0.09181752653812097, 0.022978956105076238]</t>
+    <t>[1.0, 0.14540705342024962, 0.02564176608172032, 0.08969503440187925, 0.08866458916178428, 0.021576252266940658, 0.0849997147986968, 0.27191586656929645, 0.10069841203064302, -0.01306485732965578, 0.0987281848260582, 0.07569491142622937, -0.022743987051284557, 0.09279042506001473, 0.2660341255975632, 0.06497331774383742, -0.011524208465160474, 0.11245179860214816, 0.0974274160492259, -0.023856607475829135]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>891</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.007331850719741531</v>
+        <v>-0.1542581303010235</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.07871564495407837</v>
+        <v>0.03394601265597957</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>70.89517339987877</v>
+        <v>51.07955614817614</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.8996539792387543</v>
+        <v>0.9497334348819497</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.2242028989180139</v>
+        <v>0.009862873733637163</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1172127995674597</v>
+        <v>0.05731836445304229</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>69.66131168826789</v>
+        <v>48.48729692616877</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.1716315955110675</v>
+        <v>-0.3595820537345226</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.09965543785118311</v>
+        <v>0.08672935989123372</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>72.04062637791498</v>
+        <v>53.57900730172615</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/silver-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/silver-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.14524713620753002, 0.026048222905760237, 0.08826587790657203, 0.08683521874205198, 0.020265338434351257, 0.08492595576956288, 0.2723303106873136, 0.10063556677572534, -0.013719874393382533, 0.09823279943222611, 0.0749176217330113, -0.023640790106412977, 0.09231822970644903, 0.2664087422091209, 0.06569849735376455, -0.012008672776967204, 0.11163698280494512, 0.09667318905904564, -0.024479232437878935]</t>
+    <t>[1.0, 0.14504445694985793, 0.025472600447849082, 0.08613002374663972, 0.08407760926014012, 0.0185559692342061, 0.08377570569365057, 0.27270368940927353, 0.10016201233836572, -0.014444711809234873, 0.09706648172344313, 0.07321634639226914, -0.024113806525724014, 0.09179266925151944, 0.2667902887524999, 0.06590626011605515, -0.012790364047846687, 0.11000259250597443, 0.09547334351363555, -0.025292533265979234]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.14540705342024962, 0.02564176608172032, 0.08969503440187925, 0.08866458916178428, 0.021576252266940658, 0.0849997147986968, 0.27191586656929645, 0.10069841203064302, -0.01306485732965578, 0.0987281848260582, 0.07569491142622937, -0.022743987051284557, 0.09279042506001473, 0.2660341255975632, 0.06497331774383742, -0.011524208465160474, 0.11245179860214816, 0.0974274160492259, -0.023856607475829135]</t>
+    <t>[1.0, 0.14418144470406055, 0.02484336659429966, 0.08627028257247382, 0.08450115467944377, 0.018162349315222648, 0.08239256422519736, 0.2720375516792358, 0.0995402779258603, -0.014797074853573554, 0.09722934224706116, 0.07324057602205596, -0.024199142171614865, 0.09216411055487878, 0.2657882729432112, 0.06559405304487399, -0.013058476709091611, 0.109844474652561, 0.09540798768701135, -0.025674479940512984]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.1542581303010235</v>
+        <v>-0.1574606916619176</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.03394601265597957</v>
+        <v>0.1090491499087974</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>51.07955614817614</v>
+        <v>51.08948806223462</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.009862873733637163</v>
+        <v>-0.01642966077857282</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.05731836445304229</v>
+        <v>0.2565507903589642</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>48.48729692616877</v>
+        <v>48.50647356568494</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.3595820537345226</v>
+        <v>-0.4378328735474312</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.08672935989123372</v>
+        <v>0.6760901503594756</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>53.57900730172615</v>
+        <v>53.58126562322729</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/silver-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/silver-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.22675004292889683, 0.062123434245428676, 0.06961366530796025, 0.09578775513165073, 0.0670077674827422, 0.1524506649161111, 0.3153932549897232, 0.1466862958711597, 0.0010973216441285327, 0.06678930010921383, 0.06835695789876009, 0.017456229951695712, 0.1227821184389343, 0.2985603691670231, 0.12722499085610015, 0.023208121324407045, 0.08604329729083153, 0.0833073687647839, 0.01780569851536084]</t>
+    <t>[1.0, 0.22767114551774634, 0.07116514037687688, 0.0825315139387393, 0.10808612079844691, 0.07745020501603359, 0.1554505607276852, 0.314464014303673, 0.14921417379141194, 0.007060237586062982, 0.07304549320488161, 0.0749473908340232, 0.02494827284931313, 0.12578710448173283, 0.29772160076827403, 0.12812096801269898, 0.029543605309833573, 0.0929268532686633, 0.09059159931975867, 0.02337120438345438]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2268605130881438, 0.06237458941968474, 0.0699365183803725, 0.09616965685239301, 0.06717791473438242, 0.15201228517775311, 0.3150689445493944, 0.14661422783714603, 0.001252548994231911, 0.0664693243553754, 0.06850942681863845, 0.01762540135349881, 0.12301244569008771, 0.2981444101042436, 0.12709835902492425, 0.023544493945772748, 0.08623070726284396, 0.08329519670064224, 0.01764920354436281]</t>
+    <t>[1.0, 0.2273283223187647, 0.07107295856840419, 0.08442502839831785, 0.11009167094984008, 0.07805531987302901, 0.15497365362736007, 0.31487933189019685, 0.1491037801061093, 0.007185133782006986, 0.0726987611559254, 0.07459733961090662, 0.025153494819605212, 0.12595857922437606, 0.2983520547276034, 0.12739576053155993, 0.02994170834847435, 0.09401341282425603, 0.09181752653812097, 0.022978956105076238]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.009107995377902533</v>
+        <v>-0.007331850719741531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3433592314392533</v>
+        <v>0.07871564495407837</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>70.9704629608503</v>
+        <v>70.89517339987877</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1690370606286822</v>
+        <v>0.2242028989180139</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.622612843926591</v>
+        <v>0.1172127995674597</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>69.78339976268998</v>
+        <v>69.66131168826789</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.1556300078323077</v>
+        <v>-0.1716315955110675</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.5857628564751521</v>
+        <v>0.09965543785118311</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>72.10306639460818</v>
+        <v>72.04062637791498</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/silver-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/silver-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.22767114551774634, 0.07116514037687688, 0.0825315139387393, 0.10808612079844691, 0.07745020501603359, 0.1554505607276852, 0.314464014303673, 0.14921417379141194, 0.007060237586062982, 0.07304549320488161, 0.0749473908340232, 0.02494827284931313, 0.12578710448173283, 0.29772160076827403, 0.12812096801269898, 0.029543605309833573, 0.0929268532686633, 0.09059159931975867, 0.02337120438345438]</t>
+    <t>[1.0, 0.2276711455177463, 0.07116514037687684, 0.08253151393873928, 0.10808612079844686, 0.07745020501603356, 0.1554505607276852, 0.31446401430367316, 0.14921417379141194, 0.007060237586062955, 0.07304549320488157, 0.07494739083402319, 0.024948272849313113, 0.1257871044817328, 0.2977216007682739, 0.128120968012699, 0.02954360530983355, 0.09292685326866326, 0.0905915993197586, 0.023371204383454393]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2273283223187647, 0.07107295856840419, 0.08442502839831785, 0.11009167094984008, 0.07805531987302901, 0.15497365362736007, 0.31487933189019685, 0.1491037801061093, 0.007185133782006986, 0.0726987611559254, 0.07459733961090662, 0.025153494819605212, 0.12595857922437606, 0.2983520547276034, 0.12739576053155993, 0.02994170834847435, 0.09401341282425603, 0.09181752653812097, 0.022978956105076238]</t>
+    <t>[1.0, 0.2273283223187647, 0.07107295856840416, 0.08442502839831792, 0.1100916709498401, 0.07805531987302895, 0.15497365362736007, 0.3148793318901968, 0.14910378010610925, 0.007185133782006951, 0.0726987611559254, 0.0745973396109066, 0.025153494819605215, 0.12595857922437606, 0.29835205472760346, 0.12739576053155988, 0.029941708348474354, 0.09401341282425607, 0.09181752653812093, 0.022978956105076248]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.007331850719741531</v>
+        <v>-0.007331850719741433</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.07871564495407837</v>
+        <v>0.07871564495407816</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>70.89517339987877</v>
+        <v>70.8951733998788</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.8996539792387543</v>
+        <v>0.4735883424408014</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.2242028989180139</v>
+        <v>0.2242028989180162</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1172127995674597</v>
+        <v>0.1172127995674601</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>69.66131168826789</v>
+        <v>69.66131168826786</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.1716315955110675</v>
+        <v>-0.1716315955110673</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.09965543785118311</v>
+        <v>0.0996554378511829</v>
       </c>
     </row>
     <row r="9" spans="1:2">
